--- a/RentalDueDate.xlsx
+++ b/RentalDueDate.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
   <si>
     <t>Nama Pemesan</t>
   </si>
@@ -89,13 +89,13 @@
     <t>DAYS LEFT</t>
   </si>
   <si>
-    <t>SET EVENT</t>
-  </si>
-  <si>
-    <t>IS RUN</t>
-  </si>
-  <si>
-    <t>IS AUTO</t>
+    <t>SET EVENT ('Y' to RUN, 'N' to DELETE)</t>
+  </si>
+  <si>
+    <t>IS RUN ('1' to RUN, '0' to STOP)</t>
+  </si>
+  <si>
+    <t>IS AUTO ('1' to RUN, '0' to STOP)</t>
   </si>
   <si>
     <t>Calendar ID</t>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>VODAFONE</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>Mark M.</t>
@@ -769,9 +772,11 @@
         <v>2000.0</v>
       </c>
       <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="N2" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="O2" s="20">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P2" s="20">
         <v>1.0</v>
@@ -779,7 +784,7 @@
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="1"/>
@@ -792,7 +797,7 @@
         <v>6.28125344356E11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="13">
         <v>45148.0</v>
@@ -805,20 +810,22 @@
         <v>19</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="24">
         <v>5000.0</v>
       </c>
       <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="N3" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="1"/>
@@ -847,17 +854,19 @@
         <v>20</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="24">
         <v>3500.0</v>
       </c>
       <c r="M4" s="19"/>
-      <c r="N4" s="20"/>
+      <c r="N4" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -870,7 +879,7 @@
         <v>6.28118898846E11</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="13">
         <v>45150.0</v>
@@ -883,20 +892,22 @@
         <v>43479.0</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="24">
         <v>4000.0</v>
       </c>
       <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="N5" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="1"/>
@@ -909,7 +920,7 @@
         <v>6.28115676091E11</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="13">
         <v>45151.0</v>
@@ -925,17 +936,19 @@
         <v>20</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="24">
         <v>6700.0</v>
       </c>
       <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
+      <c r="N6" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -948,7 +961,7 @@
         <v>6.28109230581E11</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="13">
         <v>45151.0</v>
@@ -961,20 +974,22 @@
         <v>43481.0</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="24">
         <v>4500.0</v>
       </c>
       <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
+      <c r="N7" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="1"/>
@@ -987,7 +1002,7 @@
         <v>6.28106007826E11</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="13">
         <v>45151.0</v>
@@ -1000,20 +1015,22 @@
         <v>43481.0</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="24">
         <v>1500.0</v>
       </c>
       <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="N8" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1026,7 +1043,7 @@
         <v>6.28102785071E11</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="13">
         <v>45151.0</v>
@@ -1042,17 +1059,19 @@
         <v>20</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" s="24">
         <v>3400.0</v>
       </c>
       <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1065,7 +1084,7 @@
         <v>6.28099562316E11</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="13">
         <v>45152.0</v>
@@ -1078,20 +1097,22 @@
         <v>43482.0</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="24">
         <v>3500.0</v>
       </c>
       <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="N10" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1117,33 +1138,35 @@
         <v>43482.0</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="24">
         <v>2800.0</v>
       </c>
       <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="N11" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="10">
         <v>6.28093116806E11</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F12" s="13">
         <v>45152.0</v>
@@ -1156,33 +1179,35 @@
         <v>43493.0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" s="24">
         <v>7200.0</v>
       </c>
       <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="N12" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10">
         <v>6.28089894051E11</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="13">
         <v>45152.0</v>
@@ -1198,30 +1223,32 @@
         <v>20</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13" s="24">
         <v>5400.0</v>
       </c>
       <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
+      <c r="N13" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="10">
         <v>6.28086671296E11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="13">
         <v>45153.0</v>
@@ -1234,33 +1261,35 @@
         <v>43493.0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" s="24">
         <v>3588.0</v>
       </c>
       <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="N14" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="10">
         <v>6.28083448541E11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="13">
         <v>45154.0</v>
@@ -1273,33 +1302,35 @@
         <v>43493.0</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L15" s="24">
         <v>1500.0</v>
       </c>
       <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="N15" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="10">
         <v>6.28080225786E11</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="13">
         <v>45155.0</v>
@@ -1312,7 +1343,7 @@
         <v>43514.0</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>21</v>
@@ -1321,24 +1352,26 @@
         <v>4200.0</v>
       </c>
       <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="N16" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="10">
         <v>6.28077003031E11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="13">
         <v>45155.0</v>
@@ -1354,24 +1387,26 @@
         <v>20</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17" s="18">
         <v>2000.0</v>
       </c>
       <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
+      <c r="N17" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="10">
         <v>6.28073780276E11</v>
@@ -1393,30 +1428,32 @@
         <v>20</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="24">
         <v>5000.0</v>
       </c>
       <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
+      <c r="N18" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" s="10">
         <v>6.28070557521E11</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F19" s="13">
         <v>45157.0</v>
@@ -1429,33 +1466,35 @@
         <v>43514.0</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" s="24">
         <v>3500.0</v>
       </c>
       <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="N19" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="10">
         <v>6.28067334766E11</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="13">
         <v>45158.0</v>
@@ -1477,24 +1516,26 @@
         <v>4000.0</v>
       </c>
       <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
+      <c r="N20" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="10">
         <v>6.28064112011E11</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="13">
         <v>45159.0</v>
@@ -1516,18 +1557,20 @@
         <v>6700.0</v>
       </c>
       <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
+      <c r="N21" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="10">
         <v>6.28060889256E11</v>
@@ -1546,33 +1589,35 @@
         <v>43521.0</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L22" s="24">
         <v>2500.0</v>
       </c>
       <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="N22" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="10">
         <v>6.28057666501E11</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="13">
         <v>45161.0</v>
@@ -1585,7 +1630,7 @@
         <v>43521.0</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K23" s="17" t="s">
         <v>21</v>
@@ -1594,18 +1639,20 @@
         <v>4500.0</v>
       </c>
       <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="N23" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="10">
         <v>6.28054443746E11</v>
@@ -1627,30 +1674,32 @@
         <v>20</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L24" s="24">
         <v>1500.0</v>
       </c>
       <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
+      <c r="N24" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="10">
         <v>6.28051220991E11</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F25" s="13">
         <v>45163.0</v>
@@ -1666,30 +1715,32 @@
         <v>20</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25" s="24">
         <v>3400.0</v>
       </c>
       <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
+      <c r="N25" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="10">
         <v>6.28047998236E11</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" s="13">
         <v>45164.0</v>
@@ -1702,33 +1753,35 @@
         <v>43521.0</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L26" s="24">
         <v>3500.0</v>
       </c>
       <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="N26" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27" s="10">
         <v>6.28044775481E11</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" s="13">
         <v>45165.0</v>
@@ -1741,33 +1794,35 @@
         <v>43543.0</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L27" s="24">
         <v>2800.0</v>
       </c>
       <c r="M27" s="19"/>
-      <c r="N27" s="20"/>
+      <c r="N27" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D28" s="10">
         <v>6.28041552726E11</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="13">
         <v>45166.0</v>
@@ -1780,16 +1835,18 @@
         <v>43543.0</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L28" s="24">
         <v>7200.0</v>
       </c>
       <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
+      <c r="N28" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="$J$1:$J$28"/>
